--- a/RA Timesheet.xlsx
+++ b/RA Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BobdaGreat\Downloads\Stani Alpha Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4734186D-D25E-4863-A130-17CAA131931E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AE89DD-6F20-403F-B104-E1B474666BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10095" yWindow="1515" windowWidth="9330" windowHeight="7575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,7 +421,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="P11" sqref="P11:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,8 +560,8 @@
         <v>8</v>
       </c>
       <c r="Q4">
-        <f>2</f>
-        <v>2</v>
+        <f>2+4+2</f>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -670,6 +670,10 @@
       <c r="K8">
         <v>2</v>
       </c>
+      <c r="Q8">
+        <f>3</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -743,7 +747,7 @@
       </c>
       <c r="Q11">
         <f t="shared" ref="Q11" si="12">SUM(Q2:Q10)</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="R11">
         <f t="shared" ref="R11" si="13">SUM(R2:R10)</f>
@@ -763,11 +767,11 @@
       </c>
       <c r="B14">
         <f>SUM(B11:R11)</f>
-        <v>130.5</v>
+        <v>139.5</v>
       </c>
       <c r="C14">
         <f>B14*19.61</f>
-        <v>2559.105</v>
+        <v>2735.5949999999998</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">

--- a/RA Timesheet.xlsx
+++ b/RA Timesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BobdaGreat\Downloads\Stani Alpha Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AE89DD-6F20-403F-B104-E1B474666BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F48CAE-2394-4A46-A7C9-0909D94C6682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>Week</t>
   </si>
@@ -122,9 +122,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -162,7 +162,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -268,7 +268,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -410,7 +410,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -418,19 +418,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:AB26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11:Q11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" customWidth="1"/>
-    <col min="2" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,21 +506,51 @@
         <f t="shared" si="1"/>
         <v>45327</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T1" s="1">
+        <f t="shared" ref="T1" si="2">S1+7</f>
+        <v>45334</v>
+      </c>
+      <c r="U1" s="1">
+        <f t="shared" ref="U1:Y1" si="3">T1+7</f>
+        <v>45341</v>
+      </c>
+      <c r="V1" s="1">
+        <f t="shared" si="3"/>
+        <v>45348</v>
+      </c>
+      <c r="W1" s="1">
+        <f t="shared" si="3"/>
+        <v>45355</v>
+      </c>
+      <c r="X1" s="1">
+        <f t="shared" si="3"/>
+        <v>45362</v>
+      </c>
+      <c r="Y1" s="1">
+        <f t="shared" si="3"/>
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="AB2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="AB3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -563,8 +594,19 @@
         <f>2+4+2</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -599,8 +641,11 @@
         <f>1</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="AB5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -626,8 +671,27 @@
         <f>0.75+1.25</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="T6">
+        <f>1+1+0.5</f>
+        <v>2.5</v>
+      </c>
+      <c r="U6">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -659,8 +723,19 @@
       <c r="M7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7">
+        <f>5+1</f>
+        <v>6</v>
+      </c>
+      <c r="U7">
+        <f>1+6</f>
+        <v>7</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -674,14 +749,17 @@
         <f>3</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="AB8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -690,94 +768,122 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:G11" si="2">SUM(C2:C10)</f>
+        <f t="shared" ref="C11:G11" si="4">SUM(C2:C10)</f>
         <v>2</v>
       </c>
       <c r="D11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11" si="3">SUM(H2:H10)</f>
+        <f t="shared" ref="H11" si="5">SUM(H2:H10)</f>
         <v>15</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I11" si="4">SUM(I2:I10)</f>
+        <f t="shared" ref="I11" si="6">SUM(I2:I10)</f>
         <v>15.5</v>
       </c>
       <c r="J11">
-        <f t="shared" ref="J11" si="5">SUM(J2:J10)</f>
+        <f t="shared" ref="J11" si="7">SUM(J2:J10)</f>
         <v>31.5</v>
       </c>
       <c r="K11">
-        <f t="shared" ref="K11" si="6">SUM(K2:K10)</f>
+        <f t="shared" ref="K11" si="8">SUM(K2:K10)</f>
         <v>17</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11" si="7">SUM(L2:L10)</f>
+        <f t="shared" ref="L11" si="9">SUM(L2:L10)</f>
         <v>1</v>
       </c>
       <c r="M11">
-        <f t="shared" ref="M11" si="8">SUM(M2:M10)</f>
+        <f t="shared" ref="M11" si="10">SUM(M2:M10)</f>
         <v>3.5</v>
       </c>
       <c r="N11">
-        <f t="shared" ref="N11" si="9">SUM(N2:N10)</f>
+        <f t="shared" ref="N11" si="11">SUM(N2:N10)</f>
         <v>5.5</v>
       </c>
       <c r="O11">
-        <f t="shared" ref="O11" si="10">SUM(O2:O10)</f>
+        <f t="shared" ref="O11" si="12">SUM(O2:O10)</f>
         <v>4</v>
       </c>
       <c r="P11">
-        <f t="shared" ref="P11" si="11">SUM(P2:P10)</f>
+        <f t="shared" ref="P11" si="13">SUM(P2:P10)</f>
         <v>11</v>
       </c>
       <c r="Q11">
-        <f t="shared" ref="Q11" si="12">SUM(Q2:Q10)</f>
+        <f t="shared" ref="Q11" si="14">SUM(Q2:Q10)</f>
         <v>11</v>
       </c>
       <c r="R11">
-        <f t="shared" ref="R11" si="13">SUM(R2:R10)</f>
+        <f t="shared" ref="R11" si="15">SUM(R2:R10)</f>
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <f t="shared" ref="S11:Y11" si="16">SUM(S2:S10)</f>
+        <v>5</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="16"/>
+        <v>10.5</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S11">
-        <f t="shared" ref="S11" si="14">SUM(S2:S10)</f>
+      <c r="W11">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="X11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14">
-        <f>SUM(B11:R11)</f>
-        <v>139.5</v>
+        <f>SUM(B11:Y11)</f>
+        <v>166</v>
       </c>
       <c r="C14">
         <f>B14*19.61</f>
-        <v>2735.5949999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <v>3255.2599999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f>0.8*C14</f>
+        <v>2604.2080000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">

--- a/RA Timesheet.xlsx
+++ b/RA Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BobdaGreat\Downloads\Stani Alpha Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F48CAE-2394-4A46-A7C9-0909D94C6682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69761BE2-2D46-4519-8164-5E661F8EF9A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Week</t>
   </si>
@@ -66,6 +66,15 @@
   </si>
   <si>
     <t>In Person work</t>
+  </si>
+  <si>
+    <t>Hours Logged</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Expenses ($)</t>
   </si>
 </sst>
 </file>
@@ -122,9 +131,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -162,7 +171,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -268,7 +277,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -410,7 +419,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -421,7 +430,7 @@
   <dimension ref="A1:AB26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D18" sqref="C13:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,6 +611,10 @@
         <f>2</f>
         <v>2</v>
       </c>
+      <c r="V4">
+        <f>1+2</f>
+        <v>3</v>
+      </c>
       <c r="AB4" t="s">
         <v>6</v>
       </c>
@@ -731,6 +744,9 @@
         <f>1+6</f>
         <v>7</v>
       </c>
+      <c r="V7">
+        <v>4</v>
+      </c>
       <c r="AB7" t="s">
         <v>4</v>
       </c>
@@ -754,7 +770,16 @@
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V9">
+        <f>3.66+4.32</f>
+        <v>7.98</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -844,8 +869,8 @@
         <v>9</v>
       </c>
       <c r="V11">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f>SUM(V2:V8)</f>
+        <v>7</v>
       </c>
       <c r="W11">
         <f t="shared" si="16"/>
@@ -869,51 +894,61 @@
       </c>
       <c r="B14">
         <f>SUM(B11:Y11)</f>
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C14">
         <f>B14*19.61</f>
-        <v>3255.2599999999998</v>
+        <v>3392.5299999999997</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="C15">
         <f>0.8*C14</f>
-        <v>2604.2080000000001</v>
+        <v>2714.0239999999999</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <f>6+140</f>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f>B14-B17</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
   </sheetData>

--- a/RA Timesheet.xlsx
+++ b/RA Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BobdaGreat\Downloads\Stani Alpha Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69761BE2-2D46-4519-8164-5E661F8EF9A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683AEBFC-74B8-456A-BF50-B33FF3CFA1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -90,12 +88,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,9 +114,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -131,9 +136,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -171,7 +176,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -277,7 +282,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -419,7 +424,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -430,7 +435,7 @@
   <dimension ref="A1:AB26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="C13:D18"/>
+      <selection activeCell="L16" sqref="L16:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,6 +620,9 @@
         <f>1+2</f>
         <v>3</v>
       </c>
+      <c r="W4">
+        <v>2.5</v>
+      </c>
       <c r="AB4" t="s">
         <v>6</v>
       </c>
@@ -747,6 +755,9 @@
       <c r="V7">
         <v>4</v>
       </c>
+      <c r="W7">
+        <v>2.5</v>
+      </c>
       <c r="AB7" t="s">
         <v>4</v>
       </c>
@@ -788,93 +799,93 @@
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <f>SUM(B2:B10)</f>
         <v>4</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <f t="shared" ref="C11:G11" si="4">SUM(C2:C10)</f>
         <v>2</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <f t="shared" ref="H11" si="5">SUM(H2:H10)</f>
         <v>15</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <f t="shared" ref="I11" si="6">SUM(I2:I10)</f>
         <v>15.5</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="2">
         <f t="shared" ref="J11" si="7">SUM(J2:J10)</f>
         <v>31.5</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="2">
         <f t="shared" ref="K11" si="8">SUM(K2:K10)</f>
         <v>17</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="2">
         <f t="shared" ref="L11" si="9">SUM(L2:L10)</f>
         <v>1</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="2">
         <f t="shared" ref="M11" si="10">SUM(M2:M10)</f>
         <v>3.5</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="2">
         <f t="shared" ref="N11" si="11">SUM(N2:N10)</f>
         <v>5.5</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="2">
         <f t="shared" ref="O11" si="12">SUM(O2:O10)</f>
         <v>4</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="2">
         <f t="shared" ref="P11" si="13">SUM(P2:P10)</f>
         <v>11</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="2">
         <f t="shared" ref="Q11" si="14">SUM(Q2:Q10)</f>
         <v>11</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="2">
         <f t="shared" ref="R11" si="15">SUM(R2:R10)</f>
         <v>2</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="2">
         <f t="shared" ref="S11:Y11" si="16">SUM(S2:S10)</f>
         <v>5</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="2">
         <f t="shared" si="16"/>
         <v>10.5</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="2">
         <f t="shared" si="16"/>
         <v>9</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="2">
         <f>SUM(V2:V8)</f>
         <v>7</v>
       </c>
       <c r="W11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X11">
         <f t="shared" si="16"/>
@@ -894,18 +905,18 @@
       </c>
       <c r="B14">
         <f>SUM(B11:Y11)</f>
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C14">
         <f>B14*19.61</f>
-        <v>3392.5299999999997</v>
+        <v>3490.58</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="C15">
         <f>0.8*C14</f>
-        <v>2714.0239999999999</v>
+        <v>2792.4639999999999</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -924,7 +935,7 @@
       <c r="A18" s="1"/>
       <c r="B18">
         <f>B14-B17</f>
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">

--- a/RA Timesheet.xlsx
+++ b/RA Timesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BobdaGreat\Downloads\Stani Alpha Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683AEBFC-74B8-456A-BF50-B33FF3CFA1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD99747E-0E37-4402-8FCA-F342EFACB45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,7 +79,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,15 +122,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -434,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16:L17"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,7 +635,8 @@
         <v>3</v>
       </c>
       <c r="W4">
-        <v>2.5</v>
+        <f>2.5+0.5</f>
+        <v>3</v>
       </c>
       <c r="AB4" t="s">
         <v>6</v>
@@ -708,6 +723,10 @@
         <f>2</f>
         <v>2</v>
       </c>
+      <c r="W6">
+        <f>1.5+0.75</f>
+        <v>2.25</v>
+      </c>
       <c r="AB6" t="s">
         <v>3</v>
       </c>
@@ -784,7 +803,7 @@
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="3">
         <f>3.66+4.32</f>
         <v>7.98</v>
       </c>
@@ -885,7 +904,7 @@
       </c>
       <c r="W11">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>7.75</v>
       </c>
       <c r="X11">
         <f t="shared" si="16"/>
@@ -905,18 +924,18 @@
       </c>
       <c r="B14">
         <f>SUM(B11:Y11)</f>
-        <v>178</v>
+        <v>180.75</v>
       </c>
       <c r="C14">
         <f>B14*19.61</f>
-        <v>3490.58</v>
+        <v>3544.5074999999997</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="C15">
         <f>0.8*C14</f>
-        <v>2792.4639999999999</v>
+        <v>2835.6059999999998</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -927,15 +946,15 @@
         <v>10</v>
       </c>
       <c r="B17">
-        <f>6+140</f>
-        <v>146</v>
+        <f>6+140+27</f>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18">
         <f>B14-B17</f>
-        <v>32</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
